--- a/report/reliability/comb/Faculdade de Direito - FDA-Graduação (bacharelado)-Presencial.xlsx
+++ b/report/reliability/comb/Faculdade de Direito - FDA-Graduação (bacharelado)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -4128,31 +4131,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8000741020079005</v>
+        <v>0.7937624953838709</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8166282863595493</v>
+        <v>0.8180601054719158</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.910435985533139</v>
+        <v>0.9085667631098973</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.27066762927693727</v>
+        <v>0.2569866397961834</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.453403800112638</v>
+        <v>4.496320653553201</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.03006480179334839</v>
+        <v>0.028376522258367343</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.984126984126984</v>
+        <v>2.293040293040293</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8117151951133744</v>
+        <v>0.7301935384664754</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.2290816658206939</v>
+        <v>0.22792064398156914</v>
       </c>
     </row>
     <row r="7">
@@ -4202,28 +4205,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7870419755055654</v>
+        <v>0.7980228903231998</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7962560085608495</v>
+        <v>0.8222710934100967</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8937343094402901</v>
+        <v>0.9078240243843829</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.2621470814247744</v>
+        <v>0.27826263700099235</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.9081201999454147</v>
+        <v>4.626546740128375</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.032095781901052486</v>
+        <v>0.028652517369059476</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.036820090467937376</v>
+        <v>0.04736051727682494</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.2272973278819104</v>
+        <v>0.24161811138075767</v>
       </c>
     </row>
     <row r="12">
@@ -4231,28 +4234,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7901237098744717</v>
+        <v>0.7835487721474357</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7999630421985547</v>
+        <v>0.8053805469193475</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8987031742081716</v>
+        <v>0.9010963810123185</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.26662150158446285</v>
+        <v>0.25642414706858296</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.999076225667209</v>
+        <v>4.138232505388805</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.031362537800305776</v>
+        <v>0.029857251860236363</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.037364783719887745</v>
+        <v>0.05068168142844052</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.22854396008122785</v>
+        <v>0.22481189791327394</v>
       </c>
     </row>
     <row r="13">
@@ -4260,28 +4263,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7889877718733332</v>
+        <v>0.7875929961146572</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7975413098853933</v>
+        <v>0.8087377571815654</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8941018273550455</v>
+        <v>0.9013268568621413</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.26368602918408174</v>
+        <v>0.260556638826495</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.9392792151027214</v>
+        <v>4.2284234737815</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.03179085778656512</v>
+        <v>0.029026251977417653</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03800223320985915</v>
+        <v>0.050787021858649174</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.2296193715601599</v>
+        <v>0.23148193356488134</v>
       </c>
     </row>
     <row r="14">
@@ -4289,28 +4292,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7936349356981577</v>
+        <v>0.777558910656695</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8051424143667063</v>
+        <v>0.7916000458684088</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8986140761282132</v>
+        <v>0.8872625302919365</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.273061455291179</v>
+        <v>0.24043256201532573</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>4.1319531479873675</v>
+        <v>3.7984655474951032</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.030855800652910055</v>
+        <v>0.03130082217040647</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03849288305888368</v>
+        <v>0.03974985763568217</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.2296193715601599</v>
+        <v>0.21953986242496443</v>
       </c>
     </row>
     <row r="15">
@@ -4318,28 +4321,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7621258103521746</v>
+        <v>0.7462896760681391</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7948093329110467</v>
+        <v>0.7879315353842288</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8767713597553689</v>
+        <v>0.8855310722578034</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.26043041895491026</v>
+        <v>0.23642061358735378</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.8735160043438253</v>
+        <v>3.715458292263374</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.03750656633640763</v>
+        <v>0.03691099376539293</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.035925271829402944</v>
+        <v>0.03937462462912058</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2272973278819104</v>
+        <v>0.217054432456328</v>
       </c>
     </row>
     <row r="16">
@@ -4347,28 +4350,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7612435522096752</v>
+        <v>0.7467726598205443</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7929747956051789</v>
+        <v>0.7875304444398386</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8763635397960549</v>
+        <v>0.88664624785642</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2582767747580252</v>
+        <v>0.2359878574199986</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.8303297317020566</v>
+        <v>3.70655665167449</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.037922617917391904</v>
+        <v>0.03712119549945967</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.036168306680262455</v>
+        <v>0.03978345558482243</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.20170561900734102</v>
+        <v>0.20674400798767972</v>
       </c>
     </row>
     <row r="17">
@@ -4376,28 +4379,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7944535476575778</v>
+        <v>0.7940067291911318</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.818007781054512</v>
+        <v>0.8151538289728754</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9044742215061905</v>
+        <v>0.9058704371449071</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.29008168527254335</v>
+        <v>0.26873428641999864</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.494740411399287</v>
+        <v>4.409903783472251</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.031000090526529904</v>
+        <v>0.029019510027587223</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.03764518481968278</v>
+        <v>0.050251406381732866</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2581264120566761</v>
+        <v>0.2290816658206939</v>
       </c>
     </row>
     <row r="18">
@@ -4405,28 +4408,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7966239492421967</v>
+        <v>0.7847348203473661</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8144766721772428</v>
+        <v>0.8111832797158748</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.899969712728633</v>
+        <v>0.8987226132418001</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.28525748785151483</v>
+        <v>0.2636293526330595</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.390157732376202</v>
+        <v>4.296141138852708</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.03015006651423691</v>
+        <v>0.029087066164468156</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03899853373531268</v>
+        <v>0.049162804144752076</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.26264795720399764</v>
+        <v>0.2290816658206939</v>
       </c>
     </row>
     <row r="19">
@@ -4434,28 +4437,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7883177123958129</v>
+        <v>0.7904074102621673</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.806810495772859</v>
+        <v>0.8124974370236111</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9056335813282315</v>
+        <v>0.9034301310570139</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.27518396263865014</v>
+        <v>0.2653028432357411</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>4.176264642328904</v>
+        <v>4.333260431890334</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.03165786532969074</v>
+        <v>0.027817537499249752</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.041596480432181455</v>
+        <v>0.0502873048466525</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2272973278819104</v>
+        <v>0.23368214859437755</v>
       </c>
     </row>
     <row r="20">
@@ -4463,28 +4466,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7865946606466044</v>
+        <v>0.7801223710313749</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8023027514573103</v>
+        <v>0.8079876061060557</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.899947350227313</v>
+        <v>0.9044588695535279</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.26950291122434095</v>
+        <v>0.25962474637813787</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>4.0582393400587256</v>
+        <v>4.207997149144125</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.031522901152415114</v>
+        <v>0.029473909305674263</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.0410396270319749</v>
+        <v>0.05257903071424645</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.22854396008122785</v>
+        <v>0.217054432456328</v>
       </c>
     </row>
     <row r="21">
@@ -4492,28 +4495,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7831343283582091</v>
+        <v>0.7806738715829624</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8040045138975568</v>
+        <v>0.8057865608011187</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8917570814298138</v>
+        <v>0.9002266701533851</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.27162728880915865</v>
+        <v>0.25691874886720645</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>4.1021583194896545</v>
+        <v>4.148974263186624</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03247420718338208</v>
+        <v>0.029144118259442856</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.03925402780598331</v>
+        <v>0.0518268706498183</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.2296193715601599</v>
+        <v>0.22792064398156914</v>
       </c>
     </row>
     <row r="22">
@@ -4521,33 +4524,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7862471491450443</v>
+        <v>0.7746259450386104</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8044083101568278</v>
+        <v>0.805302834547054</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8910623265992623</v>
+        <v>0.889901530829132</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.27213495432960594</v>
+        <v>0.25632963902018296</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>4.112691652706775</v>
+        <v>4.136181606309406</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.0316830197630947</v>
+        <v>0.030420920642670178</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.03956328887802105</v>
+        <v>0.05015353923794026</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.2581264120566761</v>
+        <v>0.22481189791327394</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7795525493676918</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.8100527612810918</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8916849458605693</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.2622022448773093</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>4.264619832035789</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.029441035007526064</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.04915547855106156</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.23608241633856503</v>
       </c>
     </row>
     <row r="24">
@@ -4556,458 +4583,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>84.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.5562944174187635</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6435461963530952</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6230588152225444</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.4909475664089345</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.8452380952380953</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>0.857202617920537</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>84.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.49844561889915373</v>
+        <v>0.21880538879675088</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6079246920021075</v>
+        <v>0.3677628177104208</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5755994815647513</v>
+        <v>0.3046917958038213</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4220282000154105</v>
+        <v>0.2078207460944987</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.464285714285714</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>0.924191976241996</v>
+        <v>0.10910894511799618</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>84.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5313637731733668</v>
+        <v>0.4893953411657128</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6312944112395744</v>
+        <v>0.5655784106327058</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6082659407812587</v>
+        <v>0.5233084071015128</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.46743887254633304</v>
+        <v>0.41613525537015267</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.880952380952381</v>
+        <v>3.8452380952380953</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.812622734452144</v>
+        <v>0.857202617920537</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>84.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.4431531892647804</v>
+        <v>0.42220425231534425</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5566552915442122</v>
+        <v>0.5281458175428025</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5213226458275777</v>
+        <v>0.48470662598635683</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.3608688489854227</v>
+        <v>0.33734371545806546</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.5</v>
+        <v>4.464285714285714</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>0.9378262484539215</v>
+        <v>0.924191976241996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>84.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.7746312395906602</v>
+        <v>0.7751932012276578</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.6572127939136831</v>
+        <v>0.7104320561396961</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.681515229142878</v>
+        <v>0.7408061140216852</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.6540055381940568</v>
+        <v>0.7527432212950866</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>2.011904761904762</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>2.219812472374</v>
+        <v>0.5017182181223532</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>84.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7867338209124128</v>
+        <v>0.816030181027306</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6743582660401011</v>
+        <v>0.7467727536654498</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6994501742010112</v>
+        <v>0.7799024737798234</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.6649916531502905</v>
+        <v>0.7096450381231544</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.0595238095238093</v>
+        <v>2.011904761904762</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.309494235959965</v>
+        <v>2.219812472374</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>84.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4608284152999788</v>
+        <v>0.8210326761480418</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.4211547854008202</v>
+        <v>0.7506927095827817</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3628327045451462</v>
+        <v>0.7812338847242323</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.3435801481219581</v>
+        <v>0.7113142517874378</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.6904761904761907</v>
+        <v>2.0595238095238093</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.3260702926741943</v>
+        <v>2.309494235959965</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>84.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.48632207616755013</v>
+        <v>0.39121013761594287</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.45956091698662865</v>
+        <v>0.4540717303497258</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.41135847073383713</v>
+        <v>0.3941597440272021</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.3431283201662112</v>
+        <v>0.3677255890127735</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.6904761904761907</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.627890870474205</v>
+        <v>0.25908617377023124</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>84.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5585177569778749</v>
+        <v>0.48914249356593786</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5397577043676399</v>
+        <v>0.5003128169366576</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4796611600593937</v>
+        <v>0.4617119443527084</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.4243911319351362</v>
+        <v>0.37190857504632535</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>2.0357142857142856</v>
+        <v>2.6904761904761907</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.6533749971616367</v>
+        <v>1.3260702926741943</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>84.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5405851675004245</v>
+        <v>0.4834374899917751</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5849853741998554</v>
+        <v>0.48515414356482994</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5411799526619059</v>
+        <v>0.4357561351725943</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.4381120270949015</v>
+        <v>0.3356779468697139</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.738095238095238</v>
+        <v>2.6904761904761907</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.2717415022919358</v>
+        <v>1.627890870474205</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>84.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5773263317737726</v>
+        <v>0.5700427665299184</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5680728977939759</v>
+        <v>0.5365870082012273</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.545704276867513</v>
+        <v>0.4772623703482227</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.47878619915371223</v>
+        <v>0.43405919554404193</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.642857142857143</v>
+        <v>2.0357142857142856</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2860967111497847</v>
+        <v>1.6533749971616367</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>84.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5429604770051509</v>
+        <v>0.5267674701079255</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5640312993521525</v>
+        <v>0.5610982497627021</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5419707778832512</v>
+        <v>0.5159253245253365</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.44527139545039796</v>
+        <v>0.4194827994867188</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.738095238095238</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.2717415022919358</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>84.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5894528470616259</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5664344755752924</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5516662294518625</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4899156112390838</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.642857142857143</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2860967111497847</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>84.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5363604096500313</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5132397256991883</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.49406390546562634</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.43499518555565875</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.25</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.221050308309075</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.011904761904761904</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.011904761904761904</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.2619047619047619</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.5238095238095238</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.19047619047619047</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.011904761904761904</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.11904761904761904</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.6904761904761905</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0</v>
+        <v>0.011904761904761904</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.023809523809523808</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.011904761904761904</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.21428571428571427</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5595238095238095</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.19047619047619047</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5015,25 +5021,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0</v>
+        <v>0.011904761904761904</v>
       </c>
       <c r="C46" t="n" s="110">
         <v>0.011904761904761904</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.023809523809523808</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.16666666666666666</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.047619047619047616</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.75</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5041,10 +5047,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.5357142857142857</v>
+        <v>0.011904761904761904</v>
       </c>
       <c r="C47" t="n" s="110">
         <v>0.0</v>
@@ -5053,13 +5059,13 @@
         <v>0.0</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.047619047619047616</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.21428571428571427</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.20238095238095238</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5067,25 +5073,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.5357142857142857</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.023809523809523808</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.05952380952380952</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.07142857142857142</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.30952380952380953</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5093,25 +5099,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.07142857142857142</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.19047619047619047</v>
+        <v>0.0</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.03571428571428571</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.4166666666666667</v>
+        <v>0.047619047619047616</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.25</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.03571428571428571</v>
+        <v>0.20238095238095238</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5119,25 +5125,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.023809523809523808</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.05952380952380952</v>
+      </c>
+      <c r="F50" t="n" s="113">
         <v>0.07142857142857142</v>
       </c>
-      <c r="C50" t="n" s="110">
-        <v>0.25</v>
-      </c>
-      <c r="D50" t="n" s="111">
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="E50" t="n" s="112">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F50" t="n" s="113">
-        <v>0.05952380952380952</v>
-      </c>
       <c r="G50" t="n" s="114">
-        <v>0.2261904761904762</v>
+        <v>0.30952380952380953</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5145,22 +5151,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.3333333333333333</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.07142857142857142</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.08333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.2619047619047619</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5171,25 +5177,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.13095238095238096</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C52" t="n" s="110">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="D52" t="n" s="111">
         <v>0.03571428571428571</v>
       </c>
-      <c r="D52" t="n" s="111">
-        <v>0.07142857142857142</v>
-      </c>
       <c r="E52" t="n" s="112">
-        <v>0.4880952380952381</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.27380952380952384</v>
+        <v>0.25</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5197,25 +5203,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.11904761904761904</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.011904761904761904</v>
+        <v>0.25</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.30952380952380953</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="E53" t="n" s="112">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F53" t="n" s="113">
+        <v>0.05952380952380952</v>
+      </c>
+      <c r="G53" t="n" s="114">
         <v>0.2261904761904762</v>
-      </c>
-      <c r="F53" t="n" s="113">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G53" t="n" s="114">
-        <v>0.0</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5223,27 +5229,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.25</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.2619047619047619</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.13095238095238096</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4880952380952381</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.27380952380952384</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.011904761904761904</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.30952380952380953</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.2261904761904762</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
         <v>0.15476190476190477</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C57" t="n" s="110">
         <v>0.011904761904761904</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D57" t="n" s="111">
         <v>0.42857142857142855</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.23809523809523808</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5274,7 +5358,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5323,31 +5407,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8386511554073973</v>
+        <v>0.8667426952119295</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8410346053368625</v>
+        <v>0.9904753900473967</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8342225898195118</v>
+        <v>0.9866094792261808</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5694608832051066</v>
+        <v>0.9719603044684456</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.290677301931613</v>
+        <v>103.99117601416032</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.029370289812656075</v>
+        <v>0.003003999244516269</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>4.1726190476190474</v>
+        <v>1.5119047619047619</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.7259976418820926</v>
+        <v>1.6634075995455975</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5506795933780828</v>
+        <v>0.9728068783447694</v>
       </c>
     </row>
     <row r="7">
@@ -5394,118 +5478,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.7986778341130003</v>
+        <v>0.9858240480848288</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.7984830933739026</v>
+        <v>0.986216024511205</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7320450642872307</v>
+        <v>0.9728068783447692</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5691117960464832</v>
+        <v>0.9728068783447694</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>3.962362794976009</v>
+        <v>71.54801060934103</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.03747272804006964</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.0050001723351652165</v>
-      </c>
+        <v>0.003049165993965762</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5533228431820956</v>
+        <v>0.9728068783447694</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7932499480079622</v>
+        <v>0.5712503668916937</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.800093783541356</v>
+        <v>0.9814944918157522</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7599002316669583</v>
+        <v>0.9636614470210602</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5715721368997384</v>
+        <v>0.96366144702106</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.002345688468758</v>
+        <v>53.037964807214586</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.04055491572762941</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.02383228712078882</v>
-      </c>
+        <v>0.011313093242985942</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5533228431820956</v>
+        <v>0.96366144702106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7801974124470221</v>
+        <v>0.592751363990647</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7792043986935185</v>
+        <v>0.9895992315675415</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.718592443925627</v>
+        <v>0.9794125880395075</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5405168936111485</v>
+        <v>0.9794125880395075</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.5290757337684564</v>
+        <v>95.14674208871047</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.04149980850732989</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.012060346018452928</v>
-      </c>
+        <v>0.008506797564054229</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5480363435740699</v>
+        <v>0.9794125880395075</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8118710507839925</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8160944802562755</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7659338674873678</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.596642706263056</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.437574692665652</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.03639315010236979</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.014612647823576541</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5480363435740699</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5514,283 +5568,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>84.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9822008458827671</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9903244762249724</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9839649334225266</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9780502700052538</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.5017182181223532</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>84.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8130007480665592</v>
+        <v>0.9935214697118557</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8231764053828269</v>
+        <v>0.9934018519136603</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7645097730368106</v>
+        <v>0.9903038000571766</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6645452197217088</v>
+        <v>0.9792169567235713</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.8452380952380953</v>
+        <v>2.011904761904762</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.857202617920537</v>
+        <v>2.219812472374</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>84.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8308141600222304</v>
+        <v>0.9924265471967301</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.820933910164949</v>
+        <v>0.9881016996601956</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7354482440466416</v>
+        <v>0.9775950737782368</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6774424446440441</v>
+        <v>0.9741411839356231</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.464285714285714</v>
+        <v>2.0595238095238093</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.924191976241996</v>
+        <v>2.309494235959965</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>84.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8368147164799934</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8492394331466766</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8000417298131193</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7131617797289649</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.880952380952381</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.812622734452144</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>84.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8095718749496248</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.7980831609151722</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7062563886875692</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6382039065081496</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.5</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>0.9378262484539215</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.047619047619047616</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.20238095238095238</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.011904761904761904</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.011904761904761904</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.023809523809523808</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.2619047619047619</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.5238095238095238</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.19047619047619047</v>
+        <v>0.30952380952380953</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.011904761904761904</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.11904761904761904</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.6904761904761905</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.023809523809523808</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.011904761904761904</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5595238095238095</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.19047619047619047</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.011904761904761904</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.023809523809523808</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.047619047619047616</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.75</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5821,7 +5818,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5870,31 +5867,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7717391304347827</v>
+        <v>0.6632820879513763</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.78165853071264</v>
+        <v>0.7899551188468517</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6415759049635346</v>
+        <v>0.7265353495395538</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6415759049635343</v>
+        <v>0.5562712582083017</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.579982003711336</v>
+        <v>3.7608872661404127</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.048098069989344926</v>
+        <v>0.03555425889408023</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.6904761904761907</v>
+        <v>2.1031746031746033</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.3396294261572028</v>
+        <v>0.9441941103441295</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6415759049635344</v>
+        <v>0.5660978792438877</v>
       </c>
     </row>
     <row r="7">
@@ -5944,22 +5941,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6415759049635344</v>
+        <v>0.7717391304347827</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6415759049635344</v>
+        <v>0.78165853071264</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.41161964182977817</v>
+        <v>0.6415759049635346</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.6415759049635344</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6415759049635344</v>
-      </c>
+        <v>0.6415759049635343</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.579982003711336</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.048098069989344926</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.6415759049635344</v>
       </c>
@@ -5969,25 +5968,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.41161964182977817</v>
+        <v>0.25046176579238977</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6415759049635344</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.41161964182977817</v>
-      </c>
+        <v>0.6312057618595794</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.4611399904174829</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.4611399904174829</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.7115391092939036</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.04552498332268084</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6415759049635344</v>
+        <v>0.46113999041748294</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.35129533678756486</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7229406114989438</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5660978792438875</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.5660978792438875</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.6093344658348863</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.04495417801197869</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5660978792438877</v>
       </c>
     </row>
     <row r="14">
@@ -5996,174 +6023,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>84.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8847543226489213</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9059734833215414</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7256705680931645</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6415759049635346</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.6904761904761907</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.3260702926741943</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>84.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.925131073617908</v>
+        <v>0.6215026180548704</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9059734833215414</v>
+        <v>0.8052696922580659</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7256705680931649</v>
+        <v>0.6356610086085012</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6415759049635347</v>
+        <v>0.56036808818433</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.25908617377023124</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>84.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8886428320252477</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8769433599382542</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.797855550112665</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6758212546309773</v>
+      </c>
+      <c r="G19" t="n" s="319">
         <v>2.6904761904761907</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H19" t="n" s="320">
+        <v>1.3260702926741943</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>84.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9172339267133236</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.835251455845414</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7122957459191338</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6519864618517396</v>
+      </c>
+      <c r="G20" t="n" s="319">
+        <v>2.6904761904761907</v>
+      </c>
+      <c r="H20" t="n" s="320">
         <v>1.627890870474205</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.07142857142857142</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.19047619047619047</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.03571428571428571</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.4166666666666667</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.25</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.03571428571428571</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.07142857142857142</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.25</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.10714285714285714</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.2857142857142857</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.05952380952380952</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.2261904761904762</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6194,7 +6278,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6243,31 +6327,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8797609012184842</v>
+        <v>0.6004513459781848</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8804243348743472</v>
+        <v>0.7687140682236964</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7863910964655836</v>
+        <v>0.6900374028723756</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7863910964655836</v>
+        <v>0.5255906307102608</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>7.362905604155973</v>
+        <v>3.3236525123680476</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.026146118821507122</v>
+        <v>0.04526500913232201</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.4464285714285716</v>
+        <v>3.0992063492063493</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1847877577781885</v>
+        <v>0.5446091211060148</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7863910964655836</v>
+        <v>0.5333979455667224</v>
       </c>
     </row>
     <row r="7">
@@ -6314,53 +6398,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7863910964655836</v>
+        <v>0.706747606817651</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7863910964655836</v>
+        <v>0.7080406682297606</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6184109566003427</v>
+        <v>0.54803634357407</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7863910964655836</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7863910964655836</v>
-      </c>
+        <v>0.5480363435740698</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>2.425134569039776</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.0637350687922441</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7863910964655836</v>
+        <v>0.5480363435740699</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6184109566003427</v>
+        <v>0.22097819681791409</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7863910964655836</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6184109566003427</v>
-      </c>
+        <v>0.6957071347445767</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5333979455667224</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5333979455667224</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.2863077455352108</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.03374690990224597</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7863910964655836</v>
+        <v>0.5333979455667224</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.22077922077922096</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.6625093918584566</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.4953376029899901</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.4953376029899903</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>1.963045417787153</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.03729216678929361</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.4953376029899902</v>
       </c>
     </row>
     <row r="14">
@@ -6369,165 +6483,219 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>84.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9479840533434785</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.945090232852288</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8380936860118702</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7863910964655835</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.642857142857143</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2860967111497847</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>84.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9421203487692018</v>
+        <v>0.628386915069909</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.945090232852288</v>
+        <v>0.8178295370774783</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8380936860118702</v>
+        <v>0.665893706372164</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7863910964655835</v>
+        <v>0.5853455803624742</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.25</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.221050308309075</v>
+        <v>0.10910894511799618</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>84.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.8677411117665488</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8237306089418827</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.6800474174294217</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.568082894250422</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.8452380952380953</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>0.857202617920537</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>84.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.8888140108567253</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8390736004780064</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7146838715222359</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.5762902442056695</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.464285714285714</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>0.924191976241996</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="E24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
+      <c r="G24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.011904761904761904</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9880952380952381</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.011904761904761904</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.011904761904761904</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.2619047619047619</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.011904761904761904</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="E27" t="n" s="457">
         <v>0.11904761904761904</v>
       </c>
-      <c r="C23" t="n" s="455">
-        <v>0.011904761904761904</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.30952380952380953</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.2261904761904762</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.15476190476190477</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.011904761904761904</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.23809523809523808</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="F27" t="n" s="458">
+        <v>0.6904761904761905</v>
+      </c>
+      <c r="G27" t="n" s="459">
         <v>0.0</v>
       </c>
     </row>
@@ -6558,7 +6726,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="461">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6607,31 +6775,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9858240480848288</v>
+        <v>0.7209866132602507</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.986216024511205</v>
+        <v>0.7367582382917319</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.9728068783447692</v>
+        <v>0.5832282153935615</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.9728068783447694</v>
+        <v>0.5832282153935615</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>71.54801060934103</v>
+        <v>2.7987893467611267</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.003049165993965762</v>
+        <v>0.057873862439774916</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>2.0357142857142856</v>
+        <v>2.386904761904762</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>2.249210991894384</v>
+        <v>1.3041897047596824</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.9728068783447694</v>
+        <v>0.5832282153935615</v>
       </c>
     </row>
     <row r="7">
@@ -6678,48 +6846,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9728068783447694</v>
+        <v>0.5832282153935615</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9728068783447694</v>
+        <v>0.5832282153935615</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.9463532225548945</v>
+        <v>0.3401551512311587</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9728068783447694</v>
+        <v>0.5832282153935615</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9728068783447694</v>
+        <v>0.5832282153935615</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9728068783447694</v>
+        <v>0.5832282153935615</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.9463532225548945</v>
+        <v>0.3401551512311587</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9728068783447694</v>
+        <v>0.5832282153935615</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.9463532225548945</v>
+        <v>0.3401551512311587</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9728068783447694</v>
+        <v>0.5832282153935615</v>
       </c>
     </row>
     <row r="13">
@@ -6734,25 +6902,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="528">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="542">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="542">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="542">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="542">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="542">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="542">
         <v>9</v>
@@ -6763,54 +6931,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>84.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9929047045185312</v>
+        <v>0.9182293477874919</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9931784528333187</v>
+        <v>0.8897269849210941</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9795815690639713</v>
+        <v>0.6794789793013175</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9728068783447695</v>
+        <v>0.5832282153935615</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>2.011904761904762</v>
+        <v>2.0357142857142856</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>2.219812472374</v>
+        <v>1.6533749971616367</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>84.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9934468339844277</v>
+        <v>0.8572512277555807</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.9931784528333187</v>
+        <v>0.8897269849210941</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9795815690639713</v>
+        <v>0.6794789793013173</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.9728068783447695</v>
+        <v>0.5832282153935616</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>2.0595238095238093</v>
+        <v>2.738095238095238</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>2.309494235959965</v>
+        <v>1.2717415022919358</v>
       </c>
     </row>
     <row r="19">
@@ -6825,13 +6993,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="553">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="567">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="567">
         <v>39</v>
@@ -6846,27 +7014,27 @@
         <v>42</v>
       </c>
       <c r="G22" t="s" s="567">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.5357142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="D23" t="n" s="570">
-        <v>0.047619047619047616</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.21428571428571427</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n" s="572">
-        <v>0.20238095238095238</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="G23" t="n" s="573">
         <v>0.0</v>
@@ -6874,22 +7042,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.5357142857142857</v>
+        <v>0.13095238095238096</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.023809523809523808</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.05952380952380952</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.07142857142857142</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="F24" t="n" s="572">
-        <v>0.30952380952380953</v>
+        <v>0.27380952380952384</v>
       </c>
       <c r="G24" t="n" s="573">
         <v>0.0</v>
@@ -6922,7 +7090,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="575">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6971,31 +7139,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="604">
-        <v>0.7209866132602507</v>
+        <v>0.8797609012184842</v>
       </c>
       <c r="B6" t="n" s="605">
-        <v>0.7367582382917319</v>
+        <v>0.8804243348743472</v>
       </c>
       <c r="C6" t="n" s="606">
-        <v>0.5832282153935615</v>
+        <v>0.7863910964655836</v>
       </c>
       <c r="D6" t="n" s="607">
-        <v>0.5832282153935615</v>
+        <v>0.7863910964655836</v>
       </c>
       <c r="E6" t="n" s="608">
-        <v>2.7987893467611267</v>
+        <v>7.362905604155973</v>
       </c>
       <c r="F6" t="n" s="609">
-        <v>0.057873862439774916</v>
+        <v>0.026146118821507122</v>
       </c>
       <c r="G6" t="n" s="610">
-        <v>2.386904761904762</v>
+        <v>2.4464285714285716</v>
       </c>
       <c r="H6" t="n" s="611">
-        <v>1.3041897047596824</v>
+        <v>1.1847877577781885</v>
       </c>
       <c r="I6" t="n" s="612">
-        <v>0.5832282153935615</v>
+        <v>0.7863910964655836</v>
       </c>
     </row>
     <row r="7">
@@ -7042,48 +7210,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="626">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="631">
-        <v>0.5832282153935615</v>
+        <v>0.7863910964655836</v>
       </c>
       <c r="C11" t="n" s="632">
-        <v>0.5832282153935615</v>
+        <v>0.7863910964655836</v>
       </c>
       <c r="D11" t="n" s="633">
-        <v>0.3401551512311587</v>
+        <v>0.6184109566003427</v>
       </c>
       <c r="E11" t="n" s="634">
-        <v>0.5832282153935615</v>
+        <v>0.7863910964655836</v>
       </c>
       <c r="F11" s="635"/>
       <c r="G11" s="636"/>
       <c r="H11" t="n" s="637">
-        <v>0.5832282153935615</v>
+        <v>0.7863910964655836</v>
       </c>
       <c r="I11" t="n" s="638">
-        <v>0.5832282153935615</v>
+        <v>0.7863910964655836</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="626">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="631">
-        <v>0.3401551512311587</v>
+        <v>0.6184109566003427</v>
       </c>
       <c r="C12" t="n" s="632">
-        <v>0.5832282153935615</v>
+        <v>0.7863910964655836</v>
       </c>
       <c r="D12" s="633"/>
       <c r="E12" s="634"/>
       <c r="F12" s="635"/>
       <c r="G12" s="636"/>
       <c r="H12" t="n" s="637">
-        <v>0.3401551512311587</v>
+        <v>0.6184109566003427</v>
       </c>
       <c r="I12" t="n" s="638">
-        <v>0.5832282153935615</v>
+        <v>0.7863910964655836</v>
       </c>
     </row>
     <row r="13">
@@ -7098,25 +7266,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="642">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="656">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="656">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="656">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="656">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="656">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="656">
         <v>9</v>
@@ -7127,54 +7295,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="652">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="657">
         <v>84.0</v>
       </c>
       <c r="C17" t="n" s="658">
-        <v>0.9182293477874919</v>
+        <v>0.9479840533434785</v>
       </c>
       <c r="D17" t="n" s="659">
-        <v>0.8897269849210941</v>
+        <v>0.945090232852288</v>
       </c>
       <c r="E17" t="n" s="660">
-        <v>0.6794789793013175</v>
+        <v>0.8380936860118702</v>
       </c>
       <c r="F17" t="n" s="661">
-        <v>0.5832282153935615</v>
+        <v>0.7863910964655835</v>
       </c>
       <c r="G17" t="n" s="662">
-        <v>2.0357142857142856</v>
+        <v>2.642857142857143</v>
       </c>
       <c r="H17" t="n" s="663">
-        <v>1.6533749971616367</v>
+        <v>1.2860967111497847</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="652">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="657">
         <v>84.0</v>
       </c>
       <c r="C18" t="n" s="658">
-        <v>0.8572512277555807</v>
+        <v>0.9421203487692018</v>
       </c>
       <c r="D18" t="n" s="659">
-        <v>0.8897269849210941</v>
+        <v>0.945090232852288</v>
       </c>
       <c r="E18" t="n" s="660">
-        <v>0.6794789793013173</v>
+        <v>0.8380936860118702</v>
       </c>
       <c r="F18" t="n" s="661">
-        <v>0.5832282153935616</v>
+        <v>0.7863910964655835</v>
       </c>
       <c r="G18" t="n" s="662">
-        <v>2.738095238095238</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n" s="663">
-        <v>1.2717415022919358</v>
+        <v>1.221050308309075</v>
       </c>
     </row>
     <row r="19">
@@ -7189,48 +7357,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="667">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="681">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="681">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="681">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="681">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="681">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="681">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="677">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="682">
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="C23" t="n" s="683">
+        <v>0.011904761904761904</v>
+      </c>
+      <c r="D23" t="n" s="684">
+        <v>0.30952380952380953</v>
+      </c>
+      <c r="E23" t="n" s="685">
+        <v>0.2261904761904762</v>
+      </c>
+      <c r="F23" t="n" s="686">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="C23" t="n" s="683">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="D23" t="n" s="684">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="E23" t="n" s="685">
-        <v>0.25</v>
-      </c>
-      <c r="F23" t="n" s="686">
-        <v>0.2619047619047619</v>
       </c>
       <c r="G23" t="n" s="687">
         <v>0.0</v>
@@ -7238,22 +7406,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="677">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="682">
-        <v>0.13095238095238096</v>
+        <v>0.15476190476190477</v>
       </c>
       <c r="C24" t="n" s="683">
-        <v>0.03571428571428571</v>
+        <v>0.011904761904761904</v>
       </c>
       <c r="D24" t="n" s="684">
-        <v>0.07142857142857142</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="E24" t="n" s="685">
-        <v>0.4880952380952381</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="F24" t="n" s="686">
-        <v>0.27380952380952384</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G24" t="n" s="687">
         <v>0.0</v>
@@ -7286,7 +7454,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="689">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7335,31 +7503,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="718">
-        <v>0.8005682913555224</v>
+        <v>0.7951115289923608</v>
       </c>
       <c r="B6" t="n" s="719">
-        <v>0.8250543779739109</v>
+        <v>0.8221338129321292</v>
       </c>
       <c r="C6" t="n" s="720">
-        <v>0.9131555976800854</v>
+        <v>0.9096094051945752</v>
       </c>
       <c r="D6" t="n" s="721">
-        <v>0.3204703754335306</v>
+        <v>0.31610857327735653</v>
       </c>
       <c r="E6" t="n" s="722">
-        <v>4.716061873505312</v>
+        <v>4.622204065230319</v>
       </c>
       <c r="F6" t="n" s="723">
-        <v>0.030208892904729667</v>
+        <v>0.02817340357250645</v>
       </c>
       <c r="G6" t="n" s="724">
-        <v>3.0428571428571427</v>
+        <v>2.35</v>
       </c>
       <c r="H6" t="n" s="725">
-        <v>0.8644638583992307</v>
+        <v>0.8303722492287159</v>
       </c>
       <c r="I6" t="n" s="726">
-        <v>0.2844779519295157</v>
+        <v>0.2728689337311545</v>
       </c>
     </row>
     <row r="7">
@@ -7406,292 +7574,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="740">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="745">
-        <v>0.783532271131515</v>
+        <v>0.7771831382763051</v>
       </c>
       <c r="C11" t="n" s="746">
-        <v>0.7998171103924452</v>
+        <v>0.7941594126826673</v>
       </c>
       <c r="D11" t="n" s="747">
-        <v>0.8933081357147081</v>
+        <v>0.8848289864076243</v>
       </c>
       <c r="E11" t="n" s="748">
-        <v>0.30744895255624466</v>
+        <v>0.3000536523957885</v>
       </c>
       <c r="F11" t="n" s="749">
-        <v>3.9954319370673157</v>
+        <v>3.8581283848474337</v>
       </c>
       <c r="G11" t="n" s="750">
-        <v>0.032785471612752665</v>
+        <v>0.03189044183330721</v>
       </c>
       <c r="H11" t="n" s="751">
-        <v>0.039062127885568954</v>
+        <v>0.043527491769283055</v>
       </c>
       <c r="I11" t="n" s="752">
-        <v>0.26751044361411624</v>
+        <v>0.2786734428303351</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="740">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="745">
-        <v>0.7871775686466752</v>
+        <v>0.7427963837547751</v>
       </c>
       <c r="C12" t="n" s="746">
-        <v>0.8035535666595174</v>
+        <v>0.7889997394334798</v>
       </c>
       <c r="D12" t="n" s="747">
-        <v>0.8986850524273096</v>
+        <v>0.8817943599784471</v>
       </c>
       <c r="E12" t="n" s="748">
-        <v>0.31247568930418695</v>
+        <v>0.2935264611488584</v>
       </c>
       <c r="F12" t="n" s="749">
-        <v>4.090446199482745</v>
+        <v>3.7393306402327355</v>
       </c>
       <c r="G12" t="n" s="750">
-        <v>0.03176134800727722</v>
+        <v>0.03731744081615156</v>
       </c>
       <c r="H12" t="n" s="751">
-        <v>0.040324246986470004</v>
+        <v>0.043662717490883005</v>
       </c>
       <c r="I12" t="n" s="752">
-        <v>0.2929158426099538</v>
+        <v>0.27262093187769465</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="740">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="745">
-        <v>0.7886430231276131</v>
+        <v>0.744644949812327</v>
       </c>
       <c r="C13" t="n" s="746">
-        <v>0.8053113514151985</v>
+        <v>0.7883887922570088</v>
       </c>
       <c r="D13" t="n" s="747">
-        <v>0.8938640412802727</v>
+        <v>0.8842018185278564</v>
       </c>
       <c r="E13" t="n" s="748">
-        <v>0.31488111752644043</v>
+        <v>0.29276683831445616</v>
       </c>
       <c r="F13" t="n" s="749">
-        <v>4.136406294198631</v>
+        <v>3.7256476188847865</v>
       </c>
       <c r="G13" t="n" s="750">
-        <v>0.03210997635401064</v>
+        <v>0.03728167866996455</v>
       </c>
       <c r="H13" t="n" s="751">
-        <v>0.03829599708027463</v>
+        <v>0.044467978764079846</v>
       </c>
       <c r="I13" t="n" s="752">
-        <v>0.2786734428303351</v>
+        <v>0.27262093187769465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="740">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="745">
-        <v>0.7963129948473042</v>
+        <v>0.803446028913717</v>
       </c>
       <c r="C14" t="n" s="746">
-        <v>0.8162797063942152</v>
+        <v>0.8304457097057785</v>
       </c>
       <c r="D14" t="n" s="747">
-        <v>0.9038949952921592</v>
+        <v>0.9124288049281184</v>
       </c>
       <c r="E14" t="n" s="748">
-        <v>0.3305094139019211</v>
+        <v>0.3524162340651493</v>
       </c>
       <c r="F14" t="n" s="749">
-        <v>4.443056835875389</v>
+        <v>4.897815963634631</v>
       </c>
       <c r="G14" t="n" s="750">
-        <v>0.030694154625506558</v>
+        <v>0.02858509787254636</v>
       </c>
       <c r="H14" t="n" s="751">
-        <v>0.037833318339996945</v>
+        <v>0.05457373539381029</v>
       </c>
       <c r="I14" t="n" s="752">
-        <v>0.30221219267006594</v>
+        <v>0.29392385000206395</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="740">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="745">
-        <v>0.7838628592363429</v>
+        <v>0.782174887632774</v>
       </c>
       <c r="C15" t="n" s="746">
-        <v>0.8160399458808052</v>
+        <v>0.802563502351053</v>
       </c>
       <c r="D15" t="n" s="747">
-        <v>0.8920626307039545</v>
+        <v>0.900417362173204</v>
       </c>
       <c r="E15" t="n" s="748">
-        <v>0.33015592752242257</v>
+        <v>0.3111323889366444</v>
       </c>
       <c r="F15" t="n" s="749">
-        <v>4.4359627408679785</v>
+        <v>4.064919667376064</v>
       </c>
       <c r="G15" t="n" s="750">
-        <v>0.03259353730032235</v>
+        <v>0.030018049192518784</v>
       </c>
       <c r="H15" t="n" s="751">
-        <v>0.03789930070302178</v>
+        <v>0.0666091600117907</v>
       </c>
       <c r="I15" t="n" s="752">
-        <v>0.2929158426099538</v>
+        <v>0.24890887810943552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="740">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="745">
-        <v>0.7881484286255207</v>
+        <v>0.7876173930991778</v>
       </c>
       <c r="C16" t="n" s="746">
-        <v>0.8168123978355762</v>
+        <v>0.8084821153226167</v>
       </c>
       <c r="D16" t="n" s="747">
-        <v>0.8912453040808248</v>
+        <v>0.9012535017980522</v>
       </c>
       <c r="E16" t="n" s="748">
-        <v>0.33129674591833186</v>
+        <v>0.31928769054656936</v>
       </c>
       <c r="F16" t="n" s="749">
-        <v>4.4588847071781075</v>
+        <v>4.221444470758045</v>
       </c>
       <c r="G16" t="n" s="750">
-        <v>0.03149233224025865</v>
+        <v>0.02880529262475922</v>
       </c>
       <c r="H16" t="n" s="751">
-        <v>0.03815575413965433</v>
+        <v>0.06568462031043468</v>
       </c>
       <c r="I16" t="n" s="752">
-        <v>0.30221219267006594</v>
+        <v>0.2846274999419518</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="740">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="745">
-        <v>0.763003247739163</v>
+        <v>0.7765909144747752</v>
       </c>
       <c r="C17" t="n" s="746">
-        <v>0.8068270424155692</v>
+        <v>0.8089084317095184</v>
       </c>
       <c r="D17" t="n" s="747">
-        <v>0.8738751202101843</v>
+        <v>0.9052800329275008</v>
       </c>
       <c r="E17" t="n" s="748">
-        <v>0.31697659369804726</v>
+        <v>0.3198869065395904</v>
       </c>
       <c r="F17" t="n" s="749">
-        <v>4.176708026344352</v>
+        <v>4.233093270132585</v>
       </c>
       <c r="G17" t="n" s="750">
-        <v>0.0377421686321118</v>
+        <v>0.029450668118177176</v>
       </c>
       <c r="H17" t="n" s="751">
-        <v>0.03401905418561418</v>
+        <v>0.06779239364337576</v>
       </c>
       <c r="I17" t="n" s="752">
-        <v>0.2786734428303351</v>
+        <v>0.23368214859437758</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="740">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="745">
-        <v>0.7628153549701162</v>
+        <v>0.7773958600169462</v>
       </c>
       <c r="C18" t="n" s="746">
-        <v>0.8045478281177589</v>
+        <v>0.804820457724634</v>
       </c>
       <c r="D18" t="n" s="747">
-        <v>0.873196638394794</v>
+        <v>0.8989169647624214</v>
       </c>
       <c r="E18" t="n" s="748">
-        <v>0.3138330376230888</v>
+        <v>0.314206699468192</v>
       </c>
       <c r="F18" t="n" s="749">
-        <v>4.1163412018900205</v>
+        <v>4.123487781261241</v>
       </c>
       <c r="G18" t="n" s="750">
-        <v>0.03802500357942408</v>
+        <v>0.028721891067385805</v>
       </c>
       <c r="H18" t="n" s="751">
-        <v>0.03470992956687986</v>
+        <v>0.0673618766630089</v>
       </c>
       <c r="I18" t="n" s="752">
-        <v>0.2786734428303351</v>
+        <v>0.27262093187769465</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="740">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="745">
-        <v>0.7853257563286836</v>
+        <v>0.7758693776772966</v>
       </c>
       <c r="C19" t="n" s="746">
-        <v>0.8150012313344404</v>
+        <v>0.8124705915566258</v>
       </c>
       <c r="D19" t="n" s="747">
-        <v>0.9081286523290113</v>
+        <v>0.8878972712140282</v>
       </c>
       <c r="E19" t="n" s="748">
-        <v>0.3286308341008685</v>
+        <v>0.32495765582642505</v>
       </c>
       <c r="F19" t="n" s="749">
-        <v>4.405441383276436</v>
+        <v>4.332496957680943</v>
       </c>
       <c r="G19" t="n" s="750">
-        <v>0.03238781866708724</v>
+        <v>0.029875697256093566</v>
       </c>
       <c r="H19" t="n" s="751">
-        <v>0.043697874206804724</v>
+        <v>0.0597944251167774</v>
       </c>
       <c r="I19" t="n" s="752">
-        <v>0.28200084524719476</v>
+        <v>0.2786734428303351</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="740">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="745">
-        <v>0.7824182163549156</v>
+        <v>0.7826409817227846</v>
       </c>
       <c r="C20" t="n" s="746">
-        <v>0.8079166962628336</v>
+        <v>0.8178587316120873</v>
       </c>
       <c r="D20" t="n" s="747">
-        <v>0.9007242694051867</v>
+        <v>0.8909660053014505</v>
       </c>
       <c r="E20" t="n" s="748">
-        <v>0.3184954421837534</v>
+        <v>0.33285120553189135</v>
       </c>
       <c r="F20" t="n" s="749">
-        <v>4.206074554862568</v>
+        <v>4.490243967502548</v>
       </c>
       <c r="G20" t="n" s="750">
-        <v>0.0320003456320049</v>
+        <v>0.028501537287023784</v>
       </c>
       <c r="H20" t="n" s="751">
-        <v>0.04450533415418263</v>
+        <v>0.057441526771961876</v>
       </c>
       <c r="I20" t="n" s="752">
-        <v>0.2786734428303351</v>
+        <v>0.2846274999419518</v>
       </c>
     </row>
     <row r="21">
@@ -7706,25 +7874,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="756">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="770">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="770">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="770">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="770">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="770">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="770">
         <v>9</v>
@@ -7735,262 +7903,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="766">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="771">
         <v>84.0</v>
       </c>
       <c r="C25" t="n" s="772">
-        <v>0.6122643092899078</v>
+        <v>0.7909454650748425</v>
       </c>
       <c r="D25" t="n" s="773">
-        <v>0.698451844088121</v>
+        <v>0.7132890729743108</v>
       </c>
       <c r="E25" t="n" s="774">
-        <v>0.6721637601335586</v>
+        <v>0.7424134421276081</v>
       </c>
       <c r="F25" t="n" s="775">
-        <v>0.5443764193262473</v>
+        <v>0.7666106137386248</v>
       </c>
       <c r="G25" t="n" s="776">
-        <v>3.8452380952380953</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="H25" t="n" s="777">
-        <v>0.857202617920537</v>
+        <v>0.5017182181223532</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="766">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="771">
         <v>84.0</v>
       </c>
       <c r="C26" t="n" s="772">
-        <v>0.5553896037221699</v>
+        <v>0.8317457389496314</v>
       </c>
       <c r="D26" t="n" s="773">
-        <v>0.6694158977956858</v>
+        <v>0.7511840768963945</v>
       </c>
       <c r="E26" t="n" s="774">
-        <v>0.6310399785061468</v>
+        <v>0.7833402446843237</v>
       </c>
       <c r="F26" t="n" s="775">
-        <v>0.4746748628638372</v>
+        <v>0.7129318683014578</v>
       </c>
       <c r="G26" t="n" s="776">
-        <v>4.464285714285714</v>
+        <v>2.011904761904762</v>
       </c>
       <c r="H26" t="n" s="777">
-        <v>0.924191976241996</v>
+        <v>2.219812472374</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="766">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="771">
         <v>84.0</v>
       </c>
       <c r="C27" t="n" s="772">
-        <v>0.55103287994294</v>
+        <v>0.8358860493651653</v>
       </c>
       <c r="D27" t="n" s="773">
-        <v>0.6555214194941815</v>
+        <v>0.7555942296251837</v>
       </c>
       <c r="E27" t="n" s="774">
-        <v>0.6265365701857575</v>
+        <v>0.7845191856544536</v>
       </c>
       <c r="F27" t="n" s="775">
-        <v>0.4803556272184119</v>
+        <v>0.7127422033873495</v>
       </c>
       <c r="G27" t="n" s="776">
-        <v>3.880952380952381</v>
+        <v>2.0595238095238093</v>
       </c>
       <c r="H27" t="n" s="777">
-        <v>0.812622734452144</v>
+        <v>2.309494235959965</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="766">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="771">
         <v>84.0</v>
       </c>
       <c r="C28" t="n" s="772">
-        <v>0.4398903084853803</v>
+        <v>0.21941821015845497</v>
       </c>
       <c r="D28" t="n" s="773">
-        <v>0.5652476699515049</v>
+        <v>0.4092869129848829</v>
       </c>
       <c r="E28" t="n" s="774">
-        <v>0.5141692180140673</v>
+        <v>0.3261459708744026</v>
       </c>
       <c r="F28" t="n" s="775">
-        <v>0.3462045503953896</v>
+        <v>0.20685779353248812</v>
       </c>
       <c r="G28" t="n" s="776">
-        <v>4.5</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="H28" t="n" s="777">
-        <v>0.9378262484539215</v>
+        <v>0.10910894511799618</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="766">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="771">
         <v>84.0</v>
       </c>
       <c r="C29" t="n" s="772">
-        <v>0.5828655395947762</v>
+        <v>0.5441850034467902</v>
       </c>
       <c r="D29" t="n" s="773">
-        <v>0.567289513804662</v>
+        <v>0.6489690999897721</v>
       </c>
       <c r="E29" t="n" s="774">
-        <v>0.538509931475214</v>
+        <v>0.5951952466797511</v>
       </c>
       <c r="F29" t="n" s="775">
-        <v>0.4711980257753199</v>
+        <v>0.4652450276774212</v>
       </c>
       <c r="G29" t="n" s="776">
-        <v>2.642857142857143</v>
+        <v>3.8452380952380953</v>
       </c>
       <c r="H29" t="n" s="777">
-        <v>1.2860967111497847</v>
+        <v>0.857202617920537</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="766">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="771">
         <v>84.0</v>
       </c>
       <c r="C30" t="n" s="772">
-        <v>0.5421695451728935</v>
+        <v>0.4733410868546073</v>
       </c>
       <c r="D30" t="n" s="773">
-        <v>0.5606998029576389</v>
+        <v>0.6016217533589789</v>
       </c>
       <c r="E30" t="n" s="774">
-        <v>0.5318281369249351</v>
+        <v>0.5456359039556905</v>
       </c>
       <c r="F30" t="n" s="775">
-        <v>0.43062686123397004</v>
+        <v>0.3801460504666307</v>
       </c>
       <c r="G30" t="n" s="776">
-        <v>2.25</v>
+        <v>4.464285714285714</v>
       </c>
       <c r="H30" t="n" s="777">
-        <v>1.221050308309075</v>
+        <v>0.924191976241996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="766">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="771">
         <v>84.0</v>
       </c>
       <c r="C31" t="n" s="772">
-        <v>0.7832929173235547</v>
+        <v>0.626140351189735</v>
       </c>
       <c r="D31" t="n" s="773">
-        <v>0.6434173176430632</v>
+        <v>0.5981428768335841</v>
       </c>
       <c r="E31" t="n" s="774">
-        <v>0.6650712463120537</v>
+        <v>0.52578379637345</v>
       </c>
       <c r="F31" t="n" s="775">
-        <v>0.6462956446947462</v>
+        <v>0.48035234774666674</v>
       </c>
       <c r="G31" t="n" s="776">
-        <v>2.011904761904762</v>
+        <v>2.0357142857142856</v>
       </c>
       <c r="H31" t="n" s="777">
-        <v>2.219812472374</v>
+        <v>1.6533749971616367</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="766">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="771">
         <v>84.0</v>
       </c>
       <c r="C32" t="n" s="772">
-        <v>0.795291826018356</v>
+        <v>0.5841443728859644</v>
       </c>
       <c r="D32" t="n" s="773">
-        <v>0.6615754448609078</v>
+        <v>0.6311205330881218</v>
       </c>
       <c r="E32" t="n" s="774">
-        <v>0.6840800152571109</v>
+        <v>0.5754723002992502</v>
       </c>
       <c r="F32" t="n" s="775">
-        <v>0.6568717714105623</v>
+        <v>0.46898739901285724</v>
       </c>
       <c r="G32" t="n" s="776">
-        <v>2.0595238095238093</v>
+        <v>2.738095238095238</v>
       </c>
       <c r="H32" t="n" s="777">
-        <v>2.309494235959965</v>
+        <v>1.2717415022919358</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="766">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="771">
         <v>84.0</v>
       </c>
       <c r="C33" t="n" s="772">
-        <v>0.6066857915853153</v>
+        <v>0.5968031754552304</v>
       </c>
       <c r="D33" t="n" s="773">
-        <v>0.5760989130033205</v>
+        <v>0.5687035580143482</v>
       </c>
       <c r="E33" t="n" s="774">
-        <v>0.5076541122821316</v>
+        <v>0.5434138445465357</v>
       </c>
       <c r="F33" t="n" s="775">
-        <v>0.4631560531169125</v>
+        <v>0.48242825869271366</v>
       </c>
       <c r="G33" t="n" s="776">
-        <v>2.0357142857142856</v>
+        <v>2.642857142857143</v>
       </c>
       <c r="H33" t="n" s="777">
-        <v>1.6533749971616367</v>
+        <v>1.2860967111497847</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="766">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="771">
         <v>84.0</v>
       </c>
       <c r="C34" t="n" s="772">
-        <v>0.5944547195724962</v>
+        <v>0.5376926584973195</v>
       </c>
       <c r="D34" t="n" s="773">
-        <v>0.6346439910758098</v>
+        <v>0.5228758680123902</v>
       </c>
       <c r="E34" t="n" s="774">
-        <v>0.5845405803715695</v>
+        <v>0.4919851934281526</v>
       </c>
       <c r="F34" t="n" s="775">
-        <v>0.4861436162267553</v>
+        <v>0.4203903828360865</v>
       </c>
       <c r="G34" t="n" s="776">
-        <v>2.738095238095238</v>
+        <v>2.25</v>
       </c>
       <c r="H34" t="n" s="777">
-        <v>1.2717415022919358</v>
+        <v>1.221050308309075</v>
       </c>
     </row>
     <row r="35">
@@ -8005,54 +8173,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="781">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="795">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="795">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="795">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="795">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="795">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="795">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="795">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="791">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="796">
-        <v>0.011904761904761904</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C39" t="n" s="797">
-        <v>0.011904761904761904</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="D39" t="n" s="798">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="799">
-        <v>0.2619047619047619</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="800">
-        <v>0.5238095238095238</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="801">
-        <v>0.19047619047619047</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="802">
         <v>0.0</v>
@@ -8060,10 +8228,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="791">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="796">
-        <v>0.011904761904761904</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C40" t="n" s="797">
         <v>0.0</v>
@@ -8072,13 +8240,13 @@
         <v>0.0</v>
       </c>
       <c r="E40" t="n" s="799">
-        <v>0.17857142857142858</v>
+        <v>0.047619047619047616</v>
       </c>
       <c r="F40" t="n" s="800">
-        <v>0.11904761904761904</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G40" t="n" s="801">
-        <v>0.6904761904761905</v>
+        <v>0.20238095238095238</v>
       </c>
       <c r="H40" t="n" s="802">
         <v>0.0</v>
@@ -8086,25 +8254,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="791">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="796">
-        <v>0.0</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C41" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="798">
         <v>0.023809523809523808</v>
       </c>
-      <c r="D41" t="n" s="798">
-        <v>0.011904761904761904</v>
-      </c>
       <c r="E41" t="n" s="799">
-        <v>0.21428571428571427</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="F41" t="n" s="800">
-        <v>0.5595238095238095</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G41" t="n" s="801">
-        <v>0.19047619047619047</v>
+        <v>0.30952380952380953</v>
       </c>
       <c r="H41" t="n" s="802">
         <v>0.0</v>
@@ -8112,25 +8280,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="791">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="796">
-        <v>0.0</v>
+        <v>0.011904761904761904</v>
       </c>
       <c r="C42" t="n" s="797">
-        <v>0.011904761904761904</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="D42" t="n" s="798">
-        <v>0.023809523809523808</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="799">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="800">
-        <v>0.047619047619047616</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="801">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="802">
         <v>0.0</v>
@@ -8138,25 +8306,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="791">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="796">
-        <v>0.11904761904761904</v>
+        <v>0.011904761904761904</v>
       </c>
       <c r="C43" t="n" s="797">
         <v>0.011904761904761904</v>
       </c>
       <c r="D43" t="n" s="798">
-        <v>0.30952380952380953</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="799">
-        <v>0.2261904761904762</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="F43" t="n" s="800">
-        <v>0.3333333333333333</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="G43" t="n" s="801">
-        <v>0.0</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="H43" t="n" s="802">
         <v>0.0</v>
@@ -8164,25 +8332,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="791">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="796">
-        <v>0.15476190476190477</v>
+        <v>0.011904761904761904</v>
       </c>
       <c r="C44" t="n" s="797">
-        <v>0.011904761904761904</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="798">
-        <v>0.42857142857142855</v>
+        <v>0.0</v>
       </c>
       <c r="E44" t="n" s="799">
-        <v>0.23809523809523808</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="F44" t="n" s="800">
-        <v>0.16666666666666666</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="G44" t="n" s="801">
-        <v>0.0</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="H44" t="n" s="802">
         <v>0.0</v>
@@ -8190,25 +8358,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="791">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="796">
-        <v>0.5357142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C45" t="n" s="797">
-        <v>0.0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="D45" t="n" s="798">
-        <v>0.0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E45" t="n" s="799">
-        <v>0.047619047619047616</v>
+        <v>0.25</v>
       </c>
       <c r="F45" t="n" s="800">
-        <v>0.21428571428571427</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="G45" t="n" s="801">
-        <v>0.20238095238095238</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="802">
         <v>0.0</v>
@@ -8216,25 +8384,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="791">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="796">
-        <v>0.5357142857142857</v>
+        <v>0.13095238095238096</v>
       </c>
       <c r="C46" t="n" s="797">
-        <v>0.0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="D46" t="n" s="798">
-        <v>0.023809523809523808</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E46" t="n" s="799">
-        <v>0.05952380952380952</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="F46" t="n" s="800">
-        <v>0.07142857142857142</v>
+        <v>0.27380952380952384</v>
       </c>
       <c r="G46" t="n" s="801">
-        <v>0.30952380952380953</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="802">
         <v>0.0</v>
@@ -8242,22 +8410,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="791">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="796">
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="C47" t="n" s="797">
+        <v>0.011904761904761904</v>
+      </c>
+      <c r="D47" t="n" s="798">
+        <v>0.30952380952380953</v>
+      </c>
+      <c r="E47" t="n" s="799">
+        <v>0.2261904761904762</v>
+      </c>
+      <c r="F47" t="n" s="800">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="C47" t="n" s="797">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="D47" t="n" s="798">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="E47" t="n" s="799">
-        <v>0.25</v>
-      </c>
-      <c r="F47" t="n" s="800">
-        <v>0.2619047619047619</v>
       </c>
       <c r="G47" t="n" s="801">
         <v>0.0</v>
@@ -8268,22 +8436,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="791">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="796">
-        <v>0.13095238095238096</v>
+        <v>0.15476190476190477</v>
       </c>
       <c r="C48" t="n" s="797">
-        <v>0.03571428571428571</v>
+        <v>0.011904761904761904</v>
       </c>
       <c r="D48" t="n" s="798">
-        <v>0.07142857142857142</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="E48" t="n" s="799">
-        <v>0.4880952380952381</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="F48" t="n" s="800">
-        <v>0.27380952380952384</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G48" t="n" s="801">
         <v>0.0</v>
